--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/elong_flight_android_test/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="city" sheetId="1" r:id="rId1"/>
+    <sheet name="InterCity" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>departCity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +59,13 @@
     <t>西安</t>
     <rPh sb="0" eb="1">
       <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'g</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,4 +426,36 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>